--- a/m3.xlsx
+++ b/m3.xlsx
@@ -339,7 +339,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="0"/>
   <cols>
-    <col width="32.57" customWidth="1" style="4" min="3" max="3"/>
+    <col width="40.43" customWidth="1" style="4" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -434,6 +434,11 @@
           <t>Prueba 3</t>
         </is>
       </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>CARRITO - TU CERRAJERO DE SEGURIDAD 2.pdf</t>
+        </is>
+      </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>dos</t>
@@ -694,6 +699,11 @@
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Prueba 14</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>CARRITO - TU CERRAJERO DE SEGURIDAD 2.pdf</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
